--- a/incubation/delegate_materials/Direct_Marketing_Columns.xlsx
+++ b/incubation/delegate_materials/Direct_Marketing_Columns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sian\OneDrive - QA Limited\Documents\trainingmaterials\LBG\incubation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC1ADDF-2183-4120-99C6-A1AA37F8F059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A45A7DB-81A9-4D82-AC8E-5CCF42C1A32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36075" yWindow="-6795" windowWidth="13770" windowHeight="9615" xr2:uid="{85E6285D-6A2C-4BA1-A640-A8475BFB52C7}"/>
+    <workbookView xWindow="28680" yWindow="-8445" windowWidth="29040" windowHeight="15840" xr2:uid="{85E6285D-6A2C-4BA1-A640-A8475BFB52C7}"/>
   </bookViews>
   <sheets>
     <sheet name="definitions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Name of column</t>
   </si>
@@ -106,12 +106,6 @@
     <t>Last Contact Month</t>
   </si>
   <si>
-    <t>Which day in the month did we contact them previously?</t>
-  </si>
-  <si>
-    <t>In which month did we contact them previously?</t>
-  </si>
-  <si>
     <t xml:space="preserve">How many times have we contacted them during this campaign? (including the previous contact) </t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>Last Contact Duration</t>
   </si>
   <si>
-    <t>How long did the last call last in seconds?</t>
-  </si>
-  <si>
     <t>Outcome of the previous marketing campaign - success, failure or other</t>
   </si>
   <si>
@@ -158,6 +149,18 @@
   </si>
   <si>
     <t>Previous outcome</t>
+  </si>
+  <si>
+    <t>In which month did we contact them?</t>
+  </si>
+  <si>
+    <t>Which day in the month did we contact them?</t>
+  </si>
+  <si>
+    <t>How long did the call last in seconds?</t>
+  </si>
+  <si>
+    <t>-1 means we havent previously contacted them</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -232,9 +235,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -554,7 +554,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +649,7 @@
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
@@ -663,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -674,66 +674,68 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
